--- a/engineering-competition/dev_process.xlsx
+++ b/engineering-competition/dev_process.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Add Engineering Competition files</t>
   </si>
@@ -96,6 +96,12 @@
   </si>
   <si>
     <t>8e27d300e23772fcd33e79ecd28ac3f59dd55495</t>
+  </si>
+  <si>
+    <t>63a905083ea8a0863e00a2fc99099b734c147333</t>
+  </si>
+  <si>
+    <t>overview added in ---&gt;   gnuradio\engineering-competition</t>
   </si>
 </sst>
 </file>
@@ -231,10 +237,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$C$2:$C$10</c:f>
+              <c:f>Tabelle1!$C$2:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>16321447886</c:v>
                 </c:pt>
@@ -262,13 +268,16 @@
                 <c:pt idx="8">
                   <c:v>15962151054</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>15967660563</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0D90-475F-A978-3DCC5DC23AC6}"/>
+              <c16:uniqueId val="{00000000-8AA9-4038-B2B2-A5DFAD2CA397}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -281,11 +290,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="395908552"/>
-        <c:axId val="395907240"/>
+        <c:axId val="363718088"/>
+        <c:axId val="363718416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="395908552"/>
+        <c:axId val="363718088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -327,7 +336,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="395907240"/>
+        <c:crossAx val="363718416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -335,7 +344,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="395907240"/>
+        <c:axId val="363718416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -386,7 +395,300 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="395908552"/>
+        <c:crossAx val="363718088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.40434011373578305"/>
+          <c:y val="4.1666666666666664E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>max-error</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.43099646266E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4343092971100001E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4356257906900001E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4356257906900001E-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4356257906900001E-6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4382515019E-6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4356257906900001E-6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4356257906900001E-6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.26721215565E-6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4356257906900001E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-179B-417B-913E-D38215A5AB83}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="369216296"/>
+        <c:axId val="369217608"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="369216296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="369217608"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="369217608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="369216296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -475,6 +777,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -991,27 +1333,543 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>67235</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78441</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>141194</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>67235</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2039470</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>26894</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagramm 1">
+        <xdr:cNvPr id="3" name="Diagramm 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46F3334E-0221-4441-9474-CF38928FE068}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAC1C5AE-DEC7-46DA-A36A-4C3E812A90D0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1024,6 +1882,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2286000</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2487706</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A33492BE-88F7-425A-9612-0934DDFC25E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1329,15 +2223,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="55.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
@@ -1544,6 +2438,26 @@
         <v>23</v>
       </c>
     </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>154</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1.4356257906900001E-6</v>
+      </c>
+      <c r="C11">
+        <v>15967660563</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="1">
+        <v>42863</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/engineering-competition/dev_process.xlsx
+++ b/engineering-competition/dev_process.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Add Engineering Competition files</t>
   </si>
@@ -102,6 +102,12 @@
   </si>
   <si>
     <t>overview added in ---&gt;   gnuradio\engineering-competition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c86896c2d9ac90c9382981b8744282aafd76d861 </t>
+  </si>
+  <si>
+    <t>Divide et impera</t>
   </si>
 </sst>
 </file>
@@ -237,10 +243,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$C$2:$C$11</c:f>
+              <c:f>Tabelle1!$C$2:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>16321447886</c:v>
                 </c:pt>
@@ -270,6 +276,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>15967660563</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15868943608</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -530,10 +539,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$2:$B$11</c:f>
+              <c:f>Tabelle1!$B$2:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>1.43099646266E-6</c:v>
                 </c:pt>
@@ -563,6 +572,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1.4356257906900001E-6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.26721215565E-6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2223,10 +2235,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2458,6 +2470,26 @@
         <v>24</v>
       </c>
     </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>159</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1.26721215565E-6</v>
+      </c>
+      <c r="C12">
+        <v>15868943608</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="1">
+        <v>42864</v>
+      </c>
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/engineering-competition/dev_process.xlsx
+++ b/engineering-competition/dev_process.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Add Engineering Competition files</t>
   </si>
@@ -108,6 +108,18 @@
   </si>
   <si>
     <t>Divide et impera</t>
+  </si>
+  <si>
+    <t>4d722633c6f4821e59a9ca2b393870674f751c87</t>
+  </si>
+  <si>
+    <t>Last AVC Test for Today</t>
+  </si>
+  <si>
+    <t>63b114717e2642c74648886f53259cba73b21231</t>
+  </si>
+  <si>
+    <t>some more c (useless tmp variables) deleted</t>
   </si>
 </sst>
 </file>
@@ -243,10 +255,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$C$2:$C$12</c:f>
+              <c:f>Tabelle1!$C$2:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>16321447886</c:v>
                 </c:pt>
@@ -279,6 +291,12 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>15868943608</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15671770293</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15998233425</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -539,10 +557,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$2:$B$12</c:f>
+              <c:f>Tabelle1!$B$2:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>1.43099646266E-6</c:v>
                 </c:pt>
@@ -574,6 +592,12 @@
                   <c:v>1.4356257906900001E-6</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>1.26721215565E-6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.26721215565E-6</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>1.26721215565E-6</c:v>
                 </c:pt>
               </c:numCache>
@@ -1866,15 +1890,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>78441</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>141194</xdr:rowOff>
+      <xdr:colOff>44823</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>29135</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2039470</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>26894</xdr:rowOff>
+      <xdr:colOff>2005852</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>105335</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1902,15 +1926,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2286000</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:colOff>2431677</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>40340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>2487706</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:colOff>2633383</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>116540</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2235,10 +2259,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2490,6 +2514,46 @@
         <v>26</v>
       </c>
     </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>219</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1.26721215565E-6</v>
+      </c>
+      <c r="C13">
+        <v>15671770293</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="1">
+        <v>42869</v>
+      </c>
+      <c r="F13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>239</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1.26721215565E-6</v>
+      </c>
+      <c r="C14">
+        <v>15998233425</v>
+      </c>
+      <c r="D14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="1">
+        <v>42870</v>
+      </c>
+      <c r="F14" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/engineering-competition/dev_process.xlsx
+++ b/engineering-competition/dev_process.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t xml:space="preserve">Build</t>
   </si>
@@ -143,6 +143,12 @@
   </si>
   <si>
     <t xml:space="preserve">2498608dec372190dc5ad93b64f8cb4f8889f0f4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Even more experimental compiler flags</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70a23669035ecb58036efad6800d2e7386655441</t>
   </si>
 </sst>
 </file>
@@ -529,7 +535,268 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:rPr>
+              <a:t>Performance Score</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Performance Score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4472c4"/>
+            </a:solidFill>
+            <a:ln w="28440">
+              <a:solidFill>
+                <a:srgbClr val="4472c4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$C$2:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>16321447886</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16254382549</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16313521178</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15952716079</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15949435607</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15951842731</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15968485694</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16007210792</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15962151054</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15967660563</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15868943608</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15671770293</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15998233425</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="0"/>
+        <c:axId val="30123184"/>
+        <c:axId val="30944511"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="30123184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="d9d9d9"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="30944511"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="30944511"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="d9d9d9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="30123184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:solidFill>
+        <a:srgbClr val="d9d9d9"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -680,11 +947,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="79658581"/>
-        <c:axId val="5451536"/>
+        <c:axId val="31136521"/>
+        <c:axId val="74447466"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="79658581"/>
+        <c:axId val="31136521"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -720,14 +987,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="5451536"/>
+        <c:crossAx val="74447466"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="5451536"/>
+        <c:axId val="74447466"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -770,268 +1037,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79658581"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
-              </a:rPr>
-              <a:t>Performance Score</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:lineChart>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tabelle1!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Performance Score</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4472c4"/>
-            </a:solidFill>
-            <a:ln w="28440">
-              <a:solidFill>
-                <a:srgbClr val="4472c4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>Tabelle1!$C$2:$C$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>16321447886</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16254382549</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>16313521178</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15952716079</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>15949435607</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15951842731</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>15968485694</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>16007210792</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>15962151054</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>15967660563</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15868943608</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>15671770293</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>15998233425</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="0"/>
-        <c:axId val="99377767"/>
-        <c:axId val="92521940"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="99377767"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="d9d9d9"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="92521940"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="92521940"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="6480">
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="99377767"/>
+        <c:crossAx val="31136521"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1066,13 +1072,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>45000</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>59760</xdr:rowOff>
+      <xdr:rowOff>74880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1230120</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>135720</xdr:rowOff>
+      <xdr:rowOff>151200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1096,13 +1102,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>2431800</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>70920</xdr:rowOff>
+      <xdr:rowOff>86040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2633400</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>146880</xdr:rowOff>
+      <xdr:rowOff>162360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1129,10 +1135,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
+      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1486,6 +1492,26 @@
         <v>40</v>
       </c>
     </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>282</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>15441650375</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="4" t="n">
+        <v>42872</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>

--- a/engineering-competition/dev_process.xlsx
+++ b/engineering-competition/dev_process.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\gnuradio\engineering-competition\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,149 +24,145 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
-  <si>
-    <t xml:space="preserve">Build</t>
-  </si>
-  <si>
-    <t xml:space="preserve">max-error</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Performance Score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description of Commit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Commit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add Engineering Competition files</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+  <si>
+    <t>Build</t>
+  </si>
+  <si>
+    <t>max-error</t>
+  </si>
+  <si>
+    <t>Performance Score</t>
+  </si>
+  <si>
+    <t>Description of Commit</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Commit</t>
+  </si>
+  <si>
+    <t>Add Engineering Competition files</t>
   </si>
   <si>
     <t xml:space="preserve">0c29f93f121b8bd58b42f381ec86434a149eeec8 </t>
   </si>
   <si>
-    <t xml:space="preserve">Baseline</t>
+    <t>Baseline</t>
   </si>
   <si>
     <t xml:space="preserve">2d70b7baf3fae161712c1e787109ae37c4f6b5c6 </t>
   </si>
   <si>
-    <t xml:space="preserve">restart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0749bfea1a7719087afc1fda4ee3cc11eb45b4e8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maybe c is useless (the variable)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80fc99c035f42f6c69f007c1f97c0e2dc52985a7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(temp &amp; (1 &lt;&lt; n) )&gt;&gt; n  faster than  (temp &amp; (1 &lt;&lt; n) )&gt;&gt; n   ???</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b4d2562d26ffebcfd3a508c7c0a8ff70a42e7b15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maybe temp is useless.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a63e04d21dd52403356539fedfd4001599529a0b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">temp is useless, but decreases accuracy.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24910d74dc629ec68be1d26b2710d3ceaac2d66c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">keep local variables local?!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75195b242a53f8007dadc75864c05466dbb7a4fd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">loouptable 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8e27d300e23772fcd33e79ecd28ac3f59dd55495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">overview added in ---&gt;   gnuradio\engineering-competition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63a905083ea8a0863e00a2fc99099b734c147333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Divide et impera</t>
+    <t>restart</t>
+  </si>
+  <si>
+    <t>0749bfea1a7719087afc1fda4ee3cc11eb45b4e8</t>
+  </si>
+  <si>
+    <t>maybe c is useless (the variable)</t>
+  </si>
+  <si>
+    <t>80fc99c035f42f6c69f007c1f97c0e2dc52985a7</t>
+  </si>
+  <si>
+    <t>(temp &amp; (1 &lt;&lt; n) )&gt;&gt; n  faster than  (temp &amp; (1 &lt;&lt; n) )&gt;&gt; n   ???</t>
+  </si>
+  <si>
+    <t>b4d2562d26ffebcfd3a508c7c0a8ff70a42e7b15</t>
+  </si>
+  <si>
+    <t>maybe temp is useless.</t>
+  </si>
+  <si>
+    <t>a63e04d21dd52403356539fedfd4001599529a0b</t>
+  </si>
+  <si>
+    <t>temp is useless, but decreases accuracy.</t>
+  </si>
+  <si>
+    <t>24910d74dc629ec68be1d26b2710d3ceaac2d66c</t>
+  </si>
+  <si>
+    <t>keep local variables local?!</t>
+  </si>
+  <si>
+    <t>75195b242a53f8007dadc75864c05466dbb7a4fd</t>
+  </si>
+  <si>
+    <t>loouptable 2</t>
+  </si>
+  <si>
+    <t>8e27d300e23772fcd33e79ecd28ac3f59dd55495</t>
+  </si>
+  <si>
+    <t>overview added in ---&gt;   gnuradio\engineering-competition</t>
+  </si>
+  <si>
+    <t>63a905083ea8a0863e00a2fc99099b734c147333</t>
+  </si>
+  <si>
+    <t>Divide et impera</t>
   </si>
   <si>
     <t xml:space="preserve">c86896c2d9ac90c9382981b8744282aafd76d861 </t>
   </si>
   <si>
-    <t xml:space="preserve">Last AVC Test for Today</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4d722633c6f4821e59a9ca2b393870674f751c87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">some more c (useless tmp variables) deleted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63b114717e2642c74648886f53259cba73b21231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26721215565e-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">replacing the two loop with one containing modulu isn't that efficient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5cf7a2bdb66007f88fd8082990ebc817d026d6eb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19382366393e-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Added missing DNDEBUG flag….</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25da712edac999e9f61eb0f3762a5b9f686dba41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20670119941e-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Added experimental gcc flags</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2498608dec372190dc5ad93b64f8cb4f8889f0f4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Even more experimental compiler flags</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70a23669035ecb58036efad6800d2e7386655441</t>
+    <t>Last AVC Test for Today</t>
+  </si>
+  <si>
+    <t>4d722633c6f4821e59a9ca2b393870674f751c87</t>
+  </si>
+  <si>
+    <t>some more c (useless tmp variables) deleted</t>
+  </si>
+  <si>
+    <t>63b114717e2642c74648886f53259cba73b21231</t>
+  </si>
+  <si>
+    <t>replacing the two loop with one containing modulu isn't that efficient</t>
+  </si>
+  <si>
+    <t>5cf7a2bdb66007f88fd8082990ebc817d026d6eb</t>
+  </si>
+  <si>
+    <t>Added missing DNDEBUG flag….</t>
+  </si>
+  <si>
+    <t>25da712edac999e9f61eb0f3762a5b9f686dba41</t>
+  </si>
+  <si>
+    <t>Added experimental gcc flags</t>
+  </si>
+  <si>
+    <t>2498608dec372190dc5ad93b64f8cb4f8889f0f4</t>
+  </si>
+  <si>
+    <t>Even more experimental compiler flags</t>
+  </si>
+  <si>
+    <t>70a23669035ecb58036efad6800d2e7386655441</t>
+  </si>
+  <si>
+    <t>b198c9bdce39b9ac03e61b491c2dc3ee2ce5c212</t>
+  </si>
+  <si>
+    <t>5059d3ddb734d414337f698a40dec91024e409cf</t>
+  </si>
+  <si>
+    <t>Manually enable avx2?</t>
+  </si>
+  <si>
+    <t>memcpy 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="0.00E+00"/>
-    <numFmt numFmtId="167" formatCode="M/D/YYYY"/>
-    <numFmt numFmtId="168" formatCode="MM/DD/YY"/>
-  </numFmts>
-  <fonts count="17">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -171,115 +171,15 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="24"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF996600"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF595959"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF595959"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="9">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -288,190 +188,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFDDDDDD"/>
         <bgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="1">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="36">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="22">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Status" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Neutral" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Bad" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Warning" xfId="30" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Error" xfId="31" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent" xfId="32" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 1" xfId="33" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 2" xfId="34" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 3" xfId="35" builtinId="53" customBuiltin="true"/>
+  <cellStyles count="2">
+    <cellStyle name="Erklärender Text" xfId="1" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -530,15 +276,33 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -547,26 +311,26 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
+              <a:defRPr sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
+              <a:rPr lang="en-GB" sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Calibri"/>
@@ -580,6 +344,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
@@ -598,12 +363,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4472c4"/>
-            </a:solidFill>
             <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="4472c4"/>
+                <a:srgbClr val="4472C4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -612,20 +374,33 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$C$2:$C$14</c:f>
+              <c:f>Tabelle1!$C$2:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>16321447886</c:v>
                 </c:pt>
@@ -664,12 +439,43 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>15998233425</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15697415363</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15694461601</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15440563500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15441650375</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>15460080980</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15191211741</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-457D-48F9-9E28-603A38950961}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:hiLowLines>
           <c:spPr>
             <a:ln>
@@ -677,7 +483,7 @@
             </a:ln>
           </c:spPr>
         </c:hiLowLines>
-        <c:marker val="0"/>
+        <c:smooth val="0"/>
         <c:axId val="30123184"/>
         <c:axId val="30944511"/>
       </c:lineChart>
@@ -695,27 +501,29 @@
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="d9d9d9"/>
+              <a:srgbClr val="D9D9D9"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="30944511"/>
@@ -723,6 +531,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="30944511"/>
@@ -735,7 +544,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -752,20 +561,22 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="30123184"/>
@@ -781,25 +592,33 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="9360">
       <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
+        <a:srgbClr val="D9D9D9"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -808,26 +627,26 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
+              <a:defRPr sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
+              <a:rPr lang="en-GB" sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Calibri"/>
@@ -841,14 +660,15 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.404381043332935"/>
-          <c:y val="0.0417268075055767"/>
+          <c:x val="0.40438104333293501"/>
+          <c:y val="4.1726807505576703E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
@@ -867,12 +687,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4472c4"/>
-            </a:solidFill>
             <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="4472c4"/>
+                <a:srgbClr val="4472C4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -881,64 +698,102 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$2:$B$14</c:f>
+              <c:f>Tabelle1!$B$2:$B$18</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>1.43099646266E-006</c:v>
+                  <c:v>1.43099646266E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.43430929711E-006</c:v>
+                  <c:v>1.4343092971100001E-6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.43562579069E-006</c:v>
+                  <c:v>1.4356257906900001E-6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.43562579069E-006</c:v>
+                  <c:v>1.4356257906900001E-6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.43562579069E-006</c:v>
+                  <c:v>1.4356257906900001E-6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4382515019E-006</c:v>
+                  <c:v>1.4382515019E-6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.43562579069E-006</c:v>
+                  <c:v>1.4356257906900001E-6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.43562579069E-006</c:v>
+                  <c:v>1.4356257906900001E-6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.26721215565E-006</c:v>
+                  <c:v>1.26721215565E-6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.43562579069E-006</c:v>
+                  <c:v>1.4356257906900001E-6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.26721215565E-006</c:v>
+                  <c:v>1.26721215565E-6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.26721215565E-006</c:v>
+                  <c:v>1.26721215565E-6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.26721215565E-006</c:v>
+                  <c:v>1.26721215565E-6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.26721215565E-6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.1938236639299999E-6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.20670119941E-6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.20670119941E-6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-14EC-4626-B2EA-754E510C6328}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:hiLowLines>
           <c:spPr>
             <a:ln>
@@ -946,7 +801,7 @@
             </a:ln>
           </c:spPr>
         </c:hiLowLines>
-        <c:marker val="0"/>
+        <c:smooth val="0"/>
         <c:axId val="31136521"/>
         <c:axId val="74447466"/>
       </c:lineChart>
@@ -964,27 +819,29 @@
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="d9d9d9"/>
+              <a:srgbClr val="D9D9D9"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="74447466"/>
@@ -992,6 +849,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="74447466"/>
@@ -1004,7 +862,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1021,20 +879,22 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="31136521"/>
@@ -1050,44 +910,56 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="9360">
       <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
+        <a:srgbClr val="D9D9D9"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>45000</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>74880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1230120</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>151200</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Diagramm 2"/>
+        <xdr:cNvPr id="2" name="Diagramm 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="45000" y="4204800"/>
-        <a:ext cx="5360760" cy="2743200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1101,23 +973,29 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2431800</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>86040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2633400</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>162360</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name="Diagramm 3"/>
+        <xdr:cNvPr id="3" name="Diagramm 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6607440" y="4215960"/>
-        <a:ext cx="6031440" cy="2743200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1130,396 +1008,723 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="55.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="42.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="10.53"/>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="55.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="42.140625" customWidth="1"/>
+    <col min="7" max="1025" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>26</v>
       </c>
-      <c r="B2" s="2" t="n">
-        <v>1.43099646266E-006</v>
-      </c>
-      <c r="C2" s="0" t="n">
+      <c r="B2" s="2">
+        <v>1.43099646266E-6</v>
+      </c>
+      <c r="C2">
         <v>16321447886</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2" s="3">
         <v>42853</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>57</v>
       </c>
-      <c r="B3" s="2" t="n">
-        <v>1.43430929711E-006</v>
-      </c>
-      <c r="C3" s="0" t="n">
+      <c r="B3" s="2">
+        <v>1.4343092971100001E-6</v>
+      </c>
+      <c r="C3">
         <v>16254382549</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="E3" s="3">
         <v>42856</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>144</v>
       </c>
-      <c r="B4" s="2" t="n">
-        <v>1.43562579069E-006</v>
-      </c>
-      <c r="C4" s="0" t="n">
+      <c r="B4" s="2">
+        <v>1.4356257906900001E-6</v>
+      </c>
+      <c r="C4">
         <v>16313521178</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4" s="3">
         <v>42863</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>145</v>
       </c>
-      <c r="B5" s="2" t="n">
-        <v>1.43562579069E-006</v>
-      </c>
-      <c r="C5" s="0" t="n">
+      <c r="B5" s="2">
+        <v>1.4356257906900001E-6</v>
+      </c>
+      <c r="C5">
         <v>15952716079</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E5" s="3">
         <v>42863</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>148</v>
       </c>
-      <c r="B6" s="2" t="n">
-        <v>1.43562579069E-006</v>
-      </c>
-      <c r="C6" s="0" t="n">
+      <c r="B6" s="2">
+        <v>1.4356257906900001E-6</v>
+      </c>
+      <c r="C6">
         <v>15949435607</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="E6" s="3">
         <v>42863</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>149</v>
       </c>
-      <c r="B7" s="2" t="n">
-        <v>1.4382515019E-006</v>
-      </c>
-      <c r="C7" s="0" t="n">
+      <c r="B7" s="2">
+        <v>1.4382515019E-6</v>
+      </c>
+      <c r="C7">
         <v>15951842731</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="3" t="n">
+      <c r="E7" s="3">
         <v>42863</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="F7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>150</v>
       </c>
-      <c r="B8" s="2" t="n">
-        <v>1.43562579069E-006</v>
-      </c>
-      <c r="C8" s="0" t="n">
+      <c r="B8" s="2">
+        <v>1.4356257906900001E-6</v>
+      </c>
+      <c r="C8">
         <v>15968485694</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="3" t="n">
+      <c r="E8" s="3">
         <v>42863</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="F8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>151</v>
       </c>
-      <c r="B9" s="2" t="n">
-        <v>1.43562579069E-006</v>
-      </c>
-      <c r="C9" s="0" t="n">
+      <c r="B9" s="2">
+        <v>1.4356257906900001E-6</v>
+      </c>
+      <c r="C9">
         <v>16007210792</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="3" t="n">
+      <c r="E9" s="3">
         <v>42863</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>152</v>
       </c>
-      <c r="B10" s="2" t="n">
-        <v>1.26721215565E-006</v>
-      </c>
-      <c r="C10" s="0" t="n">
+      <c r="B10" s="2">
+        <v>1.26721215565E-6</v>
+      </c>
+      <c r="C10">
         <v>15962151054</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="3" t="n">
+      <c r="E10" s="3">
         <v>42863</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="F10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>154</v>
       </c>
-      <c r="B11" s="2" t="n">
-        <v>1.43562579069E-006</v>
-      </c>
-      <c r="C11" s="0" t="n">
+      <c r="B11" s="2">
+        <v>1.4356257906900001E-6</v>
+      </c>
+      <c r="C11">
         <v>15967660563</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="3" t="n">
+      <c r="E11" s="3">
         <v>42863</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="F11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>159</v>
       </c>
-      <c r="B12" s="2" t="n">
-        <v>1.26721215565E-006</v>
-      </c>
-      <c r="C12" s="0" t="n">
+      <c r="B12" s="2">
+        <v>1.26721215565E-6</v>
+      </c>
+      <c r="C12">
         <v>15868943608</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="3" t="n">
+      <c r="E12" s="3">
         <v>42864</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="F12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>219</v>
       </c>
-      <c r="B13" s="2" t="n">
-        <v>1.26721215565E-006</v>
-      </c>
-      <c r="C13" s="0" t="n">
+      <c r="B13" s="2">
+        <v>1.26721215565E-6</v>
+      </c>
+      <c r="C13">
         <v>15671770293</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="3" t="n">
+      <c r="E13" s="3">
         <v>42869</v>
       </c>
-      <c r="F13" s="0" t="s">
+      <c r="F13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>239</v>
       </c>
-      <c r="B14" s="2" t="n">
-        <v>1.26721215565E-006</v>
-      </c>
-      <c r="C14" s="0" t="n">
+      <c r="B14" s="2">
+        <v>1.26721215565E-6</v>
+      </c>
+      <c r="C14">
         <v>15998233425</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="3" t="n">
+      <c r="E14" s="3">
         <v>42870</v>
       </c>
-      <c r="F14" s="0" t="s">
+      <c r="F14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>241</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2">
+        <v>1.26721215565E-6</v>
+      </c>
+      <c r="C15">
+        <v>15697415363</v>
+      </c>
+      <c r="D15" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="0" t="n">
-        <v>15697415363</v>
-      </c>
-      <c r="D15" s="0" t="s">
+      <c r="E15" s="3">
+        <v>42870</v>
+      </c>
+      <c r="F15" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="3" t="n">
-        <v>42870</v>
-      </c>
-      <c r="F15" s="0" t="s">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>269</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1.1938236639299999E-6</v>
+      </c>
+      <c r="C16">
+        <v>15694461601</v>
+      </c>
+      <c r="D16" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
-        <v>269</v>
-      </c>
-      <c r="B16" s="1" t="s">
+      <c r="E16" s="3">
+        <v>42872</v>
+      </c>
+      <c r="F16" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="0" t="n">
-        <v>15694461601</v>
-      </c>
-      <c r="D16" s="0" t="s">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>278</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1.20670119941E-6</v>
+      </c>
+      <c r="C17">
+        <v>15440563500</v>
+      </c>
+      <c r="D17" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="4" t="n">
+      <c r="E17" s="3">
         <v>42872</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="F17" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
-        <v>278</v>
-      </c>
-      <c r="B17" s="1" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>282</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1.20670119941E-6</v>
+      </c>
+      <c r="C18">
+        <v>15441650375</v>
+      </c>
+      <c r="D18" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="0" t="n">
-        <v>15440563500</v>
-      </c>
-      <c r="D17" s="0" t="s">
+      <c r="E18" s="3">
+        <v>42872</v>
+      </c>
+      <c r="F18" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="4" t="n">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>285</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1.1938236639299999E-6</v>
+      </c>
+      <c r="C19">
+        <v>15460080980</v>
+      </c>
+      <c r="D19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="3">
         <v>42872</v>
       </c>
-      <c r="F17" s="0" t="s">
+      <c r="F19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>371</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1.20670119941E-6</v>
+      </c>
+      <c r="C20">
+        <v>15191211741</v>
+      </c>
+      <c r="D20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="3">
+        <v>42875</v>
+      </c>
+      <c r="F20" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
-        <v>282</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="0" t="n">
-        <v>15441650375</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="4" t="n">
-        <v>42872</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>42</v>
-      </c>
-    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/engineering-competition/dev_process.xlsx
+++ b/engineering-competition/dev_process.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Build</t>
   </si>
@@ -156,6 +156,18 @@
   </si>
   <si>
     <t>memcpy 2</t>
+  </si>
+  <si>
+    <t>memcpy 3</t>
+  </si>
+  <si>
+    <t>7ffa776fae666b7b3cfaeece303243bfa321d9ec</t>
+  </si>
+  <si>
+    <t>0a25182bf60d8bda5f6b3061eab7c614bc7727aa</t>
+  </si>
+  <si>
+    <t>tidy up for today 4</t>
   </si>
 </sst>
 </file>
@@ -340,11 +352,29 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.30684088447116659"/>
+          <c:y val="4.6722783059128234E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13129368295816082"/>
+          <c:y val="0.13929946196579329"/>
+          <c:w val="0.81126972608054049"/>
+          <c:h val="0.72089985856553374"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
@@ -397,66 +427,63 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$C$2:$C$20</c:f>
+              <c:f>Tabelle1!$C$5:$C$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>16321447886</c:v>
+                  <c:v>15952716079</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16254382549</c:v>
+                  <c:v>15949435607</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16313521178</c:v>
+                  <c:v>15951842731</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15952716079</c:v>
+                  <c:v>15968485694</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15949435607</c:v>
+                  <c:v>16007210792</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15951842731</c:v>
+                  <c:v>15962151054</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15968485694</c:v>
+                  <c:v>15967660563</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16007210792</c:v>
+                  <c:v>15868943608</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15962151054</c:v>
+                  <c:v>15671770293</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15967660563</c:v>
+                  <c:v>15998233425</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15868943608</c:v>
+                  <c:v>15697415363</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15671770293</c:v>
+                  <c:v>15694461601</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15998233425</c:v>
+                  <c:v>15440563500</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15697415363</c:v>
+                  <c:v>15441650375</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15694461601</c:v>
+                  <c:v>15460080980</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15440563500</c:v>
+                  <c:v>15191211741</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>15441650375</c:v>
+                  <c:v>15193763834</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>15460080980</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>15191211741</c:v>
+                  <c:v>15134553542</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -721,10 +748,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$2:$B$18</c:f>
+              <c:f>Tabelle1!$B$2:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>1.43099646266E-6</c:v>
                 </c:pt>
@@ -775,6 +802,18 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>1.20670119941E-6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.1938236639299999E-6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.20670119941E-6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.20670119941E-6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.1938236639299999E-6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -936,15 +975,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>45000</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>74880</xdr:rowOff>
+      <xdr:colOff>197759</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>164739</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1230120</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>151200</xdr:rowOff>
+      <xdr:colOff>1382879</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>52356</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -972,15 +1011,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2431800</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>86040</xdr:rowOff>
+      <xdr:colOff>2548616</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>95026</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>2633400</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>162360</xdr:rowOff>
+      <xdr:colOff>2148164</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>171346</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1305,10 +1344,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1316,9 +1355,9 @@
     <col min="1" max="1" width="10.5703125" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="17.85546875" customWidth="1"/>
-    <col min="4" max="4" width="55.42578125" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="42.140625" customWidth="1"/>
+    <col min="4" max="4" width="63.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="1025" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1722,6 +1761,46 @@
         <v>40</v>
       </c>
     </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>374</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1.20670119941E-6</v>
+      </c>
+      <c r="C21">
+        <v>15193763834</v>
+      </c>
+      <c r="D21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="3">
+        <v>42875</v>
+      </c>
+      <c r="F21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>409</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1.1938236639299999E-6</v>
+      </c>
+      <c r="C22">
+        <v>15134553542</v>
+      </c>
+      <c r="D22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="3">
+        <v>42875</v>
+      </c>
+      <c r="F22" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
